--- a/Produce_Loads.xlsx
+++ b/Produce_Loads.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manav.Malhotra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECB026A1-C452-F441-84B1-0A5DC87CB53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A223C336-64DB-4619-8BBC-1FADDE19B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23220" yWindow="2520" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -532,14 +519,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.390625" customWidth="1"/>
-    <col min="2" max="2" width="18.33984375" customWidth="1"/>
-    <col min="3" max="9" width="9.3046875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -594,7 +581,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -620,7 +607,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -646,7 +633,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -675,7 +662,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -704,7 +691,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -733,7 +720,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -759,7 +746,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -788,7 +775,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -814,7 +801,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -843,7 +830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -872,7 +859,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -901,7 +888,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -930,7 +917,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
@@ -947,7 +934,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
@@ -976,7 +963,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1002,7 +989,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1031,7 +1018,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1060,7 +1047,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24</v>
       </c>
@@ -1086,7 +1073,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>25</v>
       </c>
@@ -1115,7 +1102,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>26</v>
       </c>
@@ -1144,7 +1131,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>27</v>
       </c>
@@ -1173,7 +1160,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1202,7 +1189,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1222,7 +1209,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31</v>
       </c>
@@ -1239,7 +1226,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>32</v>
       </c>
@@ -1265,7 +1252,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>33</v>
       </c>
@@ -1291,7 +1278,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>34</v>
       </c>
@@ -1320,7 +1307,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>35</v>
       </c>
@@ -1346,7 +1333,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>36</v>
       </c>
@@ -1375,7 +1362,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37</v>
       </c>
@@ -1392,7 +1379,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -1406,7 +1393,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40</v>
       </c>
@@ -1423,7 +1410,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>41</v>
       </c>
@@ -1443,7 +1430,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>42</v>
       </c>
@@ -1472,7 +1459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>44</v>
       </c>
@@ -1498,7 +1485,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>751</v>
       </c>
